--- a/Renovacao/Dados_Renovacao/Original/Isabella Cristina Camilo Lima Castelli.xlsx
+++ b/Renovacao/Dados_Renovacao/Original/Isabella Cristina Camilo Lima Castelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,46 +504,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>96303</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>RUI FUTOSHI KOSHIKUMO</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>De: 06/10/2023a06/10/2024</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>53123088252053</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -581,12 +549,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>96195</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,22 +564,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ERICO FERRAZ BAETA ALVIM</t>
+          <t>ZUUM CONFECCOES DE ROUPAS LTDA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>53123088138587</t>
+          <t>53103AF6K1RGX0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -651,12 +619,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2271</t>
+          <t>14897</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -666,17 +634,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CONDOMINIO RESIDENCIAL PACO REAL</t>
+          <t>MARIA DO CARMO HORTA SALVADO CANONGIA ALVIM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>53103AF6LX2B50</t>
+          <t>53103AF8P395D7</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -721,12 +689,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2315</t>
+          <t>98185</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -736,17 +704,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RESIDENCIAL IBIZA</t>
+          <t>DIEGO FERNANDO TUNUCHI RAMON</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>De: 08/10/2023a08/10/2024</t>
+          <t>De: 19/11/2023a19/11/2024</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>53103AF6M6HTD3</t>
+          <t>53123090103280</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -791,12 +759,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>98457</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -806,17 +774,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RESIDENCIAL MORADAS DO EDEN</t>
+          <t>JEFERSON EDUARDO OLIVEIRA LEITE</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>De: 10/10/2023a10/10/2024</t>
+          <t>De: 19/11/2023a19/11/2024</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>53103AF6M3HSH2</t>
+          <t>53123090459840</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -866,7 +834,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14535</t>
+          <t>15249</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -876,17 +844,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>JOAO BAPTISTA DA SILVEIRA</t>
+          <t>CLARA MARIA PONTES MACEDO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>53103AF8MXNXT4</t>
+          <t>53103AF8R6P750</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -931,12 +899,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14588</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -946,17 +914,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MARIA PAULA PEREIRA DA ROCHA</t>
+          <t>THE CLIENT OPERADORA E AGENCIA DE VIAGENS LTDA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>53103AF8N90W15</t>
+          <t>53103AF6K74DD6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1001,12 +969,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14654</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1016,17 +984,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NADIA DANTAS DE ANDRADE</t>
+          <t>CONDOMINIO RESIDENCIAL PARQUE SALAMANCA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>53103AF8NN65D6</t>
+          <t>53103AF6MDCQ96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1071,12 +1039,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14698</t>
+          <t>98563</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1086,17 +1054,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>HENRIQUE LUIZ DE OLIVEIRA</t>
+          <t>DINEY RODRIGUES CORDEIRO</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>53103AF8NWLNL2</t>
+          <t>53123090578971</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1141,12 +1109,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2325</t>
+          <t>97705</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1156,22 +1124,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CONDOMINIO EDIFICIO EUROPA I</t>
+          <t>LEDA APARECIDA PASCHOARELLI MARTINI</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>De: 28/10/2023a28/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>53103AF6M8MZ57</t>
+          <t>53123089456060</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1196,7 +1164,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>404815 - BAETA CORR DE SEGS S/C LTDA ME</t>
+          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1184,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14332</t>
+          <t>15272</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1226,17 +1194,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ANDERSON ALBERTO PINHEIRO</t>
+          <t>ADAO LUIZ DE LIMA KERNE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>53103AF8LQ5KX0</t>
+          <t>53103AF8RBMO19</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1274,46 +1242,14 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14333</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>FERNANDA FAJARDO MARCILIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>De: 03/10/2023a03/10/2024</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>53103AF8LQDAP8</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1326,7 +1262,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1336,7 +1272,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>403790 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1287,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14356</t>
+          <t>97931</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1366,17 +1302,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NAIARA DAIANE DE JESUS SANTOS</t>
+          <t>CLARA LUCIA DA CUNHA AMARAL MELLO</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>53103AF8LVARL7</t>
+          <t>53123089731443</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1406,7 +1342,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1426,27 +1362,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>97065</t>
+          <t>98302</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MAKLER EMPRENDIMENTOS S.A.</t>
+          <t>ADRIANA CAMARGOS DE SOUSA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00000000000000</t>
+          <t>53123090261978</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1476,7 +1412,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1427,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>97065</t>
+          <t>15099</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1506,17 +1442,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MAKLER EMPRENDIMENTOS S.A.</t>
+          <t>MATHEUS TUCUNDUVA DA COSTA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>53123088884572</t>
+          <t>53103AF8QAJSH7</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1546,7 +1482,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1561,32 +1497,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>97065</t>
+          <t>15190</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MAKLER EMPRENDIMENTOS S.A.</t>
+          <t>OSMAR SANCHES SOBRINHO</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53123088884580</t>
+          <t>53103AF8QU1Y98</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1616,7 +1552,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1572,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>97065</t>
+          <t>98455</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MAKLER EMPRENDIMENTOS S.A.</t>
+          <t>DIAMOND SISTEMAS DE SEGURANCA ELETRONICA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>53123088884599</t>
+          <t>53123090459824</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1686,7 +1622,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1706,27 +1642,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>97065</t>
+          <t>98460</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MAKLER EMPRENDIMENTOS S.A.</t>
+          <t>BEATRIZ GARCIA BERGAMINI</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>53123088884602</t>
+          <t>53123090459875</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1756,7 +1692,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1776,27 +1712,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>97065</t>
+          <t>98784</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MAKLER EMPRENDIMENTOS S.A.</t>
+          <t>VALERIA REGINA ZAMIGNANI GEMENES</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 25/11/2023a25/11/2024</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>53123088884610</t>
+          <t>53123090898615</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1826,7 +1762,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1846,27 +1782,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>97065</t>
+          <t>98512</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MAKLER EMPRENDIMENTOS S.A.</t>
+          <t>DIAMOND SISTEMAS DE SEGURANCA ELETRONICA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>53123088884629</t>
+          <t>53123090525398</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1896,7 +1832,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1852,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>96943</t>
+          <t>98513</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1926,17 +1862,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>THIAGO DE OLIVEIRA RIBEIRO</t>
+          <t>DIAMOND SISTEMAS DE SEGURANCA ELETRONICA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>53123088864857</t>
+          <t>53123090525401</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1966,7 +1902,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1922,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>97128</t>
+          <t>96518</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1996,17 +1932,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JULIANA DE SOUZA MACHADO</t>
+          <t>GELISON FERNANDES</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>De: 22/10/2023a22/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>53123088991948</t>
+          <t>53123088461132</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2036,7 +1972,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>520497 - C A CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2056,7 +1992,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>97603</t>
+          <t>98338</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2066,17 +2002,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EDINILSON RAMOS</t>
+          <t>HELENI DA ANUNCIACAO DE MATOS SANTOS</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>53123089401869</t>
+          <t>53123090377160</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2106,7 +2042,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>520497 - C A CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2062,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>97321</t>
+          <t>98404</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2136,17 +2072,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ELIZETE FUNARO</t>
+          <t>CLAUDINEI NUNES DE ALMEIDA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>53123089137223</t>
+          <t>53123090377828</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2176,7 +2112,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>520497 - C A CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2127,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14787</t>
+          <t>98700</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2206,17 +2142,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CELIO APARECIDO DIAS</t>
+          <t>BENEDITO DOMINGUES JARDIM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>53103AF8OFODT6</t>
+          <t>53123090761172</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2246,7 +2182,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>520497 - C A CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -2254,46 +2190,14 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>97588</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>GEISLA PORTELA VALERIO</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>53123089335203</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2306,7 +2210,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2316,7 +2220,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>402663 - BELO PORTO COR.DE SEGS.LTDA</t>
+          <t>404132 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2228,46 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>HELIO DONIZETE ZANATTA FAZENDA SANTA MARIA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>De: 01/11/2023a01/11/2024</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>53103AF6GDQDT4</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2344,7 +2280,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2354,7 +2290,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>403790 - BRV COR. DE SEGS. PIRAJU LTDA</t>
+          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2310,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14427</t>
+          <t>15038</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2384,17 +2320,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>REINALDO MENEGUELLA CAMARGO</t>
+          <t>WAGNER BOER</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>De: 07/10/2023a07/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>53103AF8MAILT0</t>
+          <t>53103AF8PXH411</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2424,7 +2360,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
+          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2375,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>96472</t>
+          <t>15035</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2454,17 +2390,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ANDRE CARLOS MACHADO</t>
+          <t>ANA PAULA DOS SANTOS DE AGUIAR E SILVA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>De: 07/10/2023a07/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>53123088391207</t>
+          <t>53103AF8PWTYP5</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2494,7 +2430,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
+          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2509,12 +2445,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>96569</t>
+          <t>15131</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2524,17 +2460,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ANTONIO PEREIRA ALVES</t>
+          <t>MARCOS AURELIO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>53123088523758</t>
+          <t>53103AF8QHEPD9</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2564,7 +2500,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
+          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2515,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>97476</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2594,17 +2530,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ELIZANGELA CRISTINA DA SILVA</t>
+          <t>VERDANA AGROPECUARIA LTDA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>53123089262800</t>
+          <t>53103AF6GHL9T4</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2634,7 +2570,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
+          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2649,12 +2585,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>97576</t>
+          <t>15216</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2664,17 +2600,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>RICARDO GONCALVES PIRES</t>
+          <t>VANDERLI DE FATIMA FERRARI</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>De: 28/10/2023a28/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>53123089335084</t>
+          <t>53103AF8QZMKH4</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2704,7 +2640,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>502807 - BRV COR. DE SEGS. PIRAJU LTDA</t>
+          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2655,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>96725</t>
+          <t>15222</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2734,17 +2670,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>LETICIA MORAES DE GOES CARVALHO</t>
+          <t>CARLOS ALBERTO DE ASSIS</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>53123088662057</t>
+          <t>53103AF8R0WV58</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2774,7 +2710,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>520497 - C A CORRETORA DE SEGUROS LTDA</t>
+          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2725,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>96726</t>
+          <t>15286</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2804,17 +2740,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ERIKA SOARES DE CAMPOS</t>
+          <t>MARIA INES DE OLIVEIRA MIRANDA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>53123088662065</t>
+          <t>53103AF8REMOX4</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2844,7 +2780,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>520497 - C A CORRETORA DE SEGUROS LTDA</t>
+          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2800,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>97182</t>
+          <t>98586</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2874,17 +2810,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ANDRE LUIS GOMES</t>
+          <t>BERIMBAU TRANSPORTES LTDA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>53123089059516</t>
+          <t>53123090632372</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2914,7 +2850,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>520497 - C A CORRETORA DE SEGUROS LTDA</t>
+          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
         </is>
       </c>
     </row>
@@ -2929,12 +2865,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>97248</t>
+          <t>15066</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2944,17 +2880,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SILVANA APARECIDA DE PAULA</t>
+          <t>DORIVAL SIRINO DO NASCIMENTO JR</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>53123089060174</t>
+          <t>53103AF8Q3H5T8</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2984,7 +2920,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>520497 - C A CORRETORA DE SEGUROS LTDA</t>
+          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -2999,12 +2935,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>97736</t>
+          <t>15173</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3014,17 +2950,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>J R PIOVEZANI SERVICOS DE SEGURANCA ME</t>
+          <t>PATRICIA ANDREIA PAESANI ROSSI</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>53123089515678</t>
+          <t>53103AF8QQES14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3054,7 +2990,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>520497 - C A CORRETORA DE SEGUROS LTDA</t>
+          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -3062,14 +2998,46 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>98539</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ARACATY NEGOCIOS IMOBILIARIOS</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>De: 21/11/2023a21/11/2024</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>53123090578734</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3082,7 +3050,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3092,7 +3060,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>404132 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -3107,12 +3075,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14294</t>
+          <t>98607</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3122,17 +3090,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CARLOS EDUARDO BERTANI</t>
+          <t>FLAVIO COELHO DA SILVA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>53103AF8LI0DD0</t>
+          <t>53123090632585</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3162,7 +3130,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -3170,46 +3138,14 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>14389</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>DEBORA APARECIDA DOMINGUES</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>De: 04/10/2023a04/10/2024</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>53103AF8M2DE94</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3232,7 +3168,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>403313 - DAKAR &amp; MELO COR.DE SEGS.LTDA ME</t>
         </is>
       </c>
     </row>
@@ -3240,46 +3176,14 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>95892</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>ROGERIO APARECIDO STELZER</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>53123087773343</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3292,7 +3196,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3302,7 +3206,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>402005 - DE PAULA ITAPETININGA ADM E COR</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3226,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>96719</t>
+          <t>98703</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3332,17 +3236,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FREDSON AUGUSTO COUTINHO</t>
+          <t>CLEUTON WILSON BICUDO DE ALMEIDA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>De: 15/10/2023a15/10/2024</t>
+          <t>De: 19/11/2023a19/11/2024</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>53123088661999</t>
+          <t>53123090761202</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3372,7 +3276,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>502724 - DE PAULA ITAPETININGA ADM E COR</t>
         </is>
       </c>
     </row>
@@ -3380,46 +3284,14 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>14617</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>RAFAEL APARECIDO BARBOSA</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>53103AF8NF8NL2</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3442,7 +3314,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>536384 - EDILAINE RENATA DA SILVA ANDRADE</t>
         </is>
       </c>
     </row>
@@ -3450,46 +3322,14 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>14550</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>DAISY PAES DE ALMEIDA PINTO DA SILVA</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>De: 22/10/2023a22/10/2024</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>53103AF8N0VOH8</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3502,7 +3342,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3512,7 +3352,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>400254 - EDSON NOBUYUKI KAWAUCHI</t>
         </is>
       </c>
     </row>
@@ -3520,46 +3360,14 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>926</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1933</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>FABIO TAKAYOSHI ANRAKU</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>53103AF6JWMA93</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3582,7 +3390,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>502723 - EDSON NOBUYUKI KAWAUCHI</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3410,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>97618</t>
+          <t>97681</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3612,17 +3420,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>JOSE CARLOS FUMIS</t>
+          <t>REGINALDO CARLOS MOTA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>53123089402016</t>
+          <t>53123089455829</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3652,7 +3460,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3480,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14836</t>
+          <t>14758</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3682,17 +3490,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SILVIO EDUARDO FIORAVANTE</t>
+          <t>JOAO ROBERTO MARCOLAN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>53103AF8OQ6GX1</t>
+          <t>53103AF8O9GM99</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3722,7 +3530,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>502730 - CANAL LIVRE CORRETORA DE SEGS LT</t>
+          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
         </is>
       </c>
     </row>
@@ -3737,12 +3545,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>917</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>96490</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3752,17 +3560,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ASSOCIACAO BENEFICENTE ONCOLOGICA DE SOR</t>
+          <t>FABIO DA CONCEICAO DIAS</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>53123088460853</t>
+          <t>53103AF6K99J50</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3792,7 +3600,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
+          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3620,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14524</t>
+          <t>14966</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3822,17 +3630,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DORIVAL SIRINO DO NASCIEMENTO JR</t>
+          <t>JOAO ROBERTO MARCOLAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>De: 12/10/2023a12/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>53103AF8MVB290</t>
+          <t>53103AF8PI1K10</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3862,7 +3670,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
+          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3690,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>97009</t>
+          <t>98171</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3892,17 +3700,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DIRCEU GALVAO JUNIOR</t>
+          <t>DENISE ALVES PEREIRA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>53123088917950</t>
+          <t>53123090103140</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3932,7 +3740,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
+          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
         </is>
       </c>
     </row>
@@ -3947,12 +3755,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>97118</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3962,17 +3770,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LISBETH ROSE SALIBA BRAGA</t>
+          <t>HES CURSO DE IDIOMAS LTDA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>53123088991840</t>
+          <t>53103AF6K3H754</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4002,7 +3810,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
+          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
         </is>
       </c>
     </row>
@@ -4022,7 +3830,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14788</t>
+          <t>15160</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4032,17 +3840,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>LUCAS TADEU CORDEIRO DE SANCTIS</t>
+          <t>REINALDO FERRAZ DE CAMPOS</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>De: 29/10/2023a29/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>53103AF8OFW3L8</t>
+          <t>53103AF8QNMGX0</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4072,7 +3880,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
+          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
         </is>
       </c>
     </row>
@@ -4087,12 +3895,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>97744</t>
+          <t>15213</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4102,17 +3910,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FERNANDO MARTINI LACRETA</t>
+          <t>JHONY DE MORAES CASTANHO</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>53123089515759</t>
+          <t>53103AF8QYZF50</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4142,7 +3950,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>401378 - D. A. R. SOROCABA CORR SEGS LTDA</t>
+          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
         </is>
       </c>
     </row>
@@ -4157,12 +3965,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>96758</t>
+          <t>284</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4172,17 +3980,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ELYD IARA ZICHWOLF BELATO MOREIRA</t>
+          <t>SINDICATO RURAL DE SAO MIGUEL ARCANJO JURDICA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>53123088739548</t>
+          <t>53103AOD1KLA93</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4202,7 +4010,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4212,7 +4020,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>403313 - DAKAR &amp; MELO COR.DE SEGS.LTDA ME</t>
+          <t>404231 - FROIS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4220,46 +4028,14 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>97136</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>WILBERT PIERRE</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>53123088992022</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4282,7 +4058,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>403313 - DAKAR &amp; MELO COR.DE SEGS.LTDA ME</t>
+          <t>502632 - FROIS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4096,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>402005 - DE PAULA ITAPETININGA ADM E COR</t>
+          <t>403496 - GUELFI ADM E COR SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4335,12 +4111,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>97687</t>
+          <t>14938</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4350,22 +4126,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PAULO OTAVIO DE ANDRADE BRANCO</t>
+          <t>RICARDO DE SOUZA ALMEIDA RAMOS</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>53123089455888</t>
+          <t>53103AF8PC1I99</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4390,7 +4166,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>502724 - DE PAULA ITAPETININGA ADM E COR</t>
+          <t>502729 - GUELFI ADM E COR SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4398,14 +4174,46 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>15179</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>IZAQUEU FRAGOSO DE SOUSA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>De: 17/11/2023a17/11/2024</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>53103AF8QRP2P3</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4418,7 +4226,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4428,7 +4236,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>400254 - EDSON NOBUYUKI KAWAUCHI</t>
+          <t>502729 - GUELFI ADM E COR SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4443,12 +4251,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>96595</t>
+          <t>15353</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4458,17 +4266,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CRISTINA APARECIDA DA SILVA DE ARRUDA</t>
+          <t>ANDRE COSTA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>53123088581685</t>
+          <t>53103AF8RSZO14</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4498,7 +4306,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>502723 - EDSON NOBUYUKI KAWAUCHI</t>
+          <t>502729 - GUELFI ADM E COR SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4518,7 +4326,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>97399</t>
+          <t>98161</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4528,17 +4336,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>STUDIO DISTRIBUIDORA DE ALIMENTOS EIRELI</t>
+          <t>LAERCIO DOMINGUES DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 10/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>53123089196319</t>
+          <t>53123090103043</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4568,7 +4376,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>502723 - EDSON NOBUYUKI KAWAUCHI</t>
+          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
         </is>
       </c>
     </row>
@@ -4583,12 +4391,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>96547</t>
+          <t>15061</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4598,17 +4406,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ROBERIO DE SOUZA SANTOS</t>
+          <t>IRANI MARQUES FERNANDES</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>53123088523537</t>
+          <t>53103AF8Q2EKX6</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4638,7 +4446,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
         </is>
       </c>
     </row>
@@ -4653,12 +4461,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>96736</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4668,17 +4476,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>AMANDA CIPULO BRAGA AMARO</t>
+          <t>JOCELI CATARINA SOARES DE MELLO VIRMOND</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>53123088739327</t>
+          <t>53103AF6K3WMP0</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4708,7 +4516,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
         </is>
       </c>
     </row>
@@ -4723,12 +4531,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>917</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>96834</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4738,17 +4546,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>JOSE APARECIDO DIAS</t>
+          <t>ACI ASSOCIACAO COLINAS DE IBIUNA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>53123088802304</t>
+          <t>53103AF6KF1V57</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4778,7 +4586,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4606,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>97180</t>
+          <t>98522</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4808,17 +4616,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>RAFAELA APARECIDA SANDRONI LEITE</t>
+          <t>MILENA E EMILY IND E COM MANUTENCAO DE I</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>53123089059494</t>
+          <t>53123090525495</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4848,7 +4656,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4676,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>97018</t>
+          <t>98956</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4878,17 +4686,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ELISANGELA APARECIDA RODRIGUES DIAS</t>
+          <t>RUBENS VIANELO</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>53123088918043</t>
+          <t>53123091098280</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4918,7 +4726,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
         </is>
       </c>
     </row>
@@ -4926,46 +4734,14 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>97525</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>JONATHAN DA COSTA</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>53123089334576</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4978,7 +4754,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4988,7 +4764,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>439353 - J C FLORIANO CORRETORA SEGUROS</t>
         </is>
       </c>
     </row>
@@ -5003,12 +4779,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>14607</t>
+          <t>97866</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5018,17 +4794,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>LUANA RAFAELE DE MORAES OZORIO</t>
+          <t>AGROVERDE SR COMERCIO DE RACOES</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>53103AF8ND3HT1</t>
+          <t>53123089674245</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5058,7 +4834,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>401422 - LACAM CORR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -5078,7 +4854,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>96862</t>
+          <t>96728</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5088,17 +4864,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>JOAO MAXIMO DA ROSA</t>
+          <t>ESTELA REGINA DA ROCHA SPINOSA DE ANDRAD</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>De: 21/10/2023a21/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>53123088802584</t>
+          <t>53123088662081</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5128,7 +4904,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>401422 - LACAM CORR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -5148,7 +4924,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>96929</t>
+          <t>98050</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5158,17 +4934,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CLARICE FRANCISCA VIEIRA DOS SANTOS</t>
+          <t>DANIRO AFONSO GEMENTE</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>De: 22/10/2023a22/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>53123088864717</t>
+          <t>53123089912200</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5198,7 +4974,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>401422 - LACAM CORR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -5218,7 +4994,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>97857</t>
+          <t>98289</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5228,17 +5004,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>LETICIA DE MORAES COELHO</t>
+          <t>MARIA LUCIA MAGALHAES BARBOSA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>53123089674156</t>
+          <t>53123090261846</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5268,7 +5044,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>401422 - LACAM CORR DE SEGUROS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -5283,12 +5059,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>96888</t>
+          <t>14918</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5298,17 +5074,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>JULCIMARA ALICE ROSENDO COELHO</t>
+          <t>MAR DE MINAS NEGOCIOS NAUTICOS E ATRACADORES LTDA</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>53123088802843</t>
+          <t>53103AF8P7R6P3</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5338,7 +5114,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>443560 - ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -5346,46 +5122,14 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>1884</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>EDMILSON MASATO FUKAZAWA</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>De: 06/10/2023a06/10/2024</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>53103AODB3IYP3</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5398,7 +5142,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5408,7 +5152,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>404231 - FROIS CORRETORA DE SEGUROS LTDA</t>
+          <t>402642 - LAFEL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -5428,7 +5172,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>25570</t>
+          <t>97948</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5438,17 +5182,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ANA LUCIA ARRIVABENE LOLO BRIGIDA</t>
+          <t>FERNANDO ALVES MOREIRA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>53123089335289</t>
+          <t>53123089791560</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5468,7 +5212,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5478,7 +5222,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>404231 - FROIS CORRETORA DE SEGUROS LTDA</t>
+          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -5486,14 +5230,46 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>GERALDO CUBAS</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>De: 11/11/2023a11/11/2024</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>53103AF8PPJM98</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5516,7 +5292,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>502632 - FROIS CORRETORA DE SEGUROS LTDA</t>
+          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -5531,12 +5307,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>14999</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5546,17 +5322,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EDMILSON BENEDITO CAVALHEIRO ME</t>
+          <t>MARIA DE FATIMA MORETTO CAMPANHA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>53103AOD19VHD0</t>
+          <t>53103AF8PP46P9</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5576,7 +5352,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5586,7 +5362,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>403496 - GUELFI ADM E COR SEGUROS LTDA</t>
+          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -5601,12 +5377,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>919</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14677</t>
+          <t>2348</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5616,17 +5392,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DANILO SANTOS PILOTO</t>
+          <t>CONDOMINIO EDIFICIO JOSE WAGNER MARTINS</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>53103AF8NS3M99</t>
+          <t>53103AF6MDKG19</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5656,7 +5432,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>502729 - GUELFI ADM E COR SEGUROS LTDA</t>
+          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5452,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>97580</t>
+          <t>98632</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5686,22 +5462,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ANDERSON CLEITON DE ALBUQUERQUE</t>
+          <t>CAMILA MATHIAZZI TESTA CARRIEL</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>53123089335122</t>
+          <t>53123090691573</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5726,7 +5502,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>502729 - GUELFI ADM E COR SEGUROS LTDA</t>
+          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5522,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>96496</t>
+          <t>98420</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5756,17 +5532,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ADRIANO JOSE MOREIRA</t>
+          <t>CARLOS ALBERTO GIMENES FERNANDES</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 26/11/2023a26/11/2024</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>53123088460918</t>
+          <t>53123090377984</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5796,7 +5572,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -5811,12 +5587,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14334</t>
+          <t>98628</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5826,17 +5602,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>GILSON SIMOES</t>
+          <t>CASA DE CARNES ORLEI RODRIGUES LTDA</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 26/11/2023a26/11/2024</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>53103AF8LQL0H0</t>
+          <t>53123090691530</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5866,7 +5642,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5657,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>14745</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5896,17 +5672,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ANGELUS MATERIAIS PARA CONSTRUCAO LTDA</t>
+          <t>RAUL DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>53103AF6K0H693</t>
+          <t>53103AF8O6OB50</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5936,7 +5712,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>403410 - M.R.S.L CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -5944,46 +5720,14 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>96367</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>MITUO YOSHIMURA</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>De: 06/10/2023a06/10/2024</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>53123088314318</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5996,7 +5740,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6006,7 +5750,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>404845 - M.V. CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
     </row>
@@ -6026,7 +5770,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>96905</t>
+          <t>97930</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6036,17 +5780,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ACI ASSOCIACAO COLINAS DE IBIUNA</t>
+          <t>ANUNCIATA APARECIDA DE OLIVEIRA SOUZA</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>53123088864474</t>
+          <t>53123089731435</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6076,7 +5820,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>502735 - M.V. CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
     </row>
@@ -6091,12 +5835,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14548</t>
+          <t>98294</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6106,17 +5850,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>DEIMAR ALBERTIN</t>
+          <t>MARIA ROSA CICHON CARDOSO</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>53103AF8N0G8X6</t>
+          <t>53123090261897</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6146,7 +5890,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>502735 - M.V. CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
     </row>
@@ -6166,7 +5910,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>96787</t>
+          <t>98428</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6176,17 +5920,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>RUBENS NUNES GONCALVES</t>
+          <t>ELIS MACEDO FRANCISCO PESSUTO</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>53123088739831</t>
+          <t>53123090378069</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6216,7 +5960,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>502735 - M.V. CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
     </row>
@@ -6224,46 +5968,14 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>14541</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>SERGIO CROITOR CEADAREANU</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>De: 17/10/2023a17/10/2024</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>53103AF8MYY8H9</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6286,7 +5998,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>400061 - MARCIO ALVES</t>
         </is>
       </c>
     </row>
@@ -6294,46 +6006,14 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>97102</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>CLODOALDO VIDAL DOMINGUES</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>53123088991689</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6346,7 +6026,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6356,7 +6036,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>404020 - MARQUES E MERCHIAN CORR SEGS LTD</t>
         </is>
       </c>
     </row>
@@ -6364,46 +6044,14 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>14573</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>GISELE DURANTE</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>De: 19/10/2023a19/10/2024</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>53103AF8N5T5D0</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6426,7 +6074,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>502732 - MARQUES E MERCHIAN CORR SEGS LTD</t>
         </is>
       </c>
     </row>
@@ -6434,46 +6082,14 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>14786</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>EIJI TAKAFUJI</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>De: 26/10/2023a26/10/2024</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>53103AF8OFGO19</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6486,7 +6102,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6496,7 +6112,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>401621 - IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>405102 - MUNDI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6504,14 +6120,46 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>14980</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>VAGNER FERNANDES RIBEIRO</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>De: 08/11/2023a08/11/2024</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>53103AF8PL1KX6</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6524,7 +6172,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6534,7 +6182,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>439353 - J C FLORIANO CORRETORA SEGUROS</t>
+          <t>498221 - NOVARAH PLUS CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -6554,7 +6202,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>96714</t>
+          <t>98437</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6564,17 +6212,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>VAGNER ALVES BENIGNO</t>
+          <t>FERNANDO JOSE DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>53123088661948</t>
+          <t>53123090459646</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6604,7 +6252,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>401422 - LACAM CORR DE SEGUROS LTDA ME</t>
+          <t>498221 - NOVARAH PLUS CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6272,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>96969</t>
+          <t>98552</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6634,17 +6282,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>GILDA FONSECA MACHADO</t>
+          <t>SIMONE DA SILVA SAMPAIO</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>De: 22/10/2023a22/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>53123088865110</t>
+          <t>53123090578866</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6674,7 +6322,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>401422 - LACAM CORR DE SEGUROS LTDA ME</t>
+          <t>498221 - NOVARAH PLUS CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -6689,12 +6337,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>15370</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6704,17 +6352,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>MC GUINDASTES</t>
+          <t>MARIA IMACULADA DE SOUZA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>53103AF6JYJQ91</t>
+          <t>53103AF8RWMU92</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6744,7 +6392,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>498221 - NOVARAH PLUS CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -6752,46 +6400,14 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>96476</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>COOLER LOGISTICA LTDA</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>De: 01/10/2023a01/10/2024</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>00000000000000</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6804,7 +6420,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6814,7 +6430,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>422836 - OCASIONAL CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6450,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>97908</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6844,17 +6460,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>TIRLEN DA SILVA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>53123088334726</t>
+          <t>53123089731214</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6884,7 +6500,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>502733 - OCASIONAL CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -6904,27 +6520,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>98461</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>MAURILIO FLORENCIO DOS SANTOS NISHIGUCHI</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>53123088334734</t>
+          <t>53123090459883</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6954,7 +6570,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>502733 - OCASIONAL CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -6974,27 +6590,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>98668</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>ERNESTO DINIZ FILHO ME</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>53123088334742</t>
+          <t>53123090760850</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7024,7 +6640,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>502733 - OCASIONAL CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -7044,27 +6660,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>98388</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>MARIA CRISTINA TAMASSIA FERREIRA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>53123088334750</t>
+          <t>53123090377666</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7094,7 +6710,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>502733 - OCASIONAL CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -7109,32 +6725,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>SENIOR INFORMAES CADASTRAIS LTDA</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>53123088334769</t>
+          <t>53103AF6K8EO14</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7164,7 +6780,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>502733 - OCASIONAL CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -7179,32 +6795,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>15419</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>RODRIGO RODRIGUES POMBAL</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>53123088334777</t>
+          <t>53103AF8S74XD5</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7234,7 +6850,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>502733 - OCASIONAL CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -7249,32 +6865,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>14811</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>RAFAEL AUGUSTO DE LIMA</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>53123088334785</t>
+          <t>53103AF8OKTKH8</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7304,7 +6920,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7319,32 +6935,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>14817</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>RAFAEL AUGUSTO DE LIMA</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>53123088334793</t>
+          <t>53103AF8OM3V53</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7374,7 +6990,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7394,27 +7010,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>98103</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>MARC AURELIO GUIMARAES RAGGIO</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>53123088334807</t>
+          <t>53123089976446</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7444,7 +7060,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7459,32 +7075,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>14857</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>FABIANA CERQUEARO</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>53123088334815</t>
+          <t>53103AF8OUOI93</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7514,7 +7130,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7529,32 +7145,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>14853</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>SERGIO RICARDO CALEGARI</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>53123088334823</t>
+          <t>53103AF8OTTN53</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7584,7 +7200,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7599,32 +7215,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>14926</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>MARCELO MARCONDES DIOGO DE PAULA</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>53123088334831</t>
+          <t>53103AF8P9GWX0</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7654,7 +7270,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7669,32 +7285,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>PEDRO BALDI JUNIOR</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>53123088334840</t>
+          <t>53103AF6K1Z6P1</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7724,7 +7340,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7739,32 +7355,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>96476</t>
+          <t>14981</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>COOLER LOGISTICA LTDA</t>
+          <t>MARCELO MARCONDES DIOGO DE PAULA</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>53123088334858</t>
+          <t>53103AF8PL9AP9</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7794,7 +7410,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7809,12 +7425,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>96531</t>
+          <t>14982</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7824,17 +7440,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ADRIANA CUSTODIO DOS SANTOS</t>
+          <t>NATHALIA PROETI PARDO</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>53123088461264</t>
+          <t>53103AF8PLH0H5</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7864,7 +7480,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7879,12 +7495,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>96768</t>
+          <t>15049</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7894,17 +7510,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>CAUE MARQUES TROVAO</t>
+          <t>ADELIA SODRE DE ANDRADE</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>53123088739645</t>
+          <t>53103AF8PZTZL6</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7934,7 +7550,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -7949,12 +7565,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>15082</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7964,17 +7580,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>MC LOCACOES TRANSP E LOG EIRELLI</t>
+          <t>ALESSANDRA DANIELE DOMINGUES</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>De: 15/10/2023a15/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>53103AF6K2U1T1</t>
+          <t>53103AF8Q6WM93</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8004,7 +7620,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8019,12 +7635,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>97859</t>
+          <t>15203</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8034,17 +7650,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>MARENZO SERVICOS HOSPITALARES EIRELI</t>
+          <t>DANIEL RIBEIRO NOLACIO</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>53123089674172</t>
+          <t>53103AF8QWU9D5</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8074,7 +7690,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>402641 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8082,14 +7698,46 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ALESSANDRA DE OLIVEIRA MORAES 28233248878</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>De: 23/11/2023a23/11/2024</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>53103AF6KA4E98</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8112,7 +7760,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>402642 - LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8127,12 +7775,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>96495</t>
+          <t>15277</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -8142,22 +7790,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>S. M. JATAI MARMIL LTDA</t>
+          <t>FABIO PINHEIRO DE SOUSA</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>53123088460900</t>
+          <t>53103AF8RCP8X5</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8182,7 +7830,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8197,12 +7845,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>96657</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -8212,17 +7860,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>APARECIDA CUBAS FREZZA</t>
+          <t>ALEXANDRO GARCIA RIBEIRO</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>De: 07/10/2023a07/10/2024</t>
+          <t>De: 26/11/2023a26/11/2024</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>53123088661379</t>
+          <t>53103AF6K9WOH2</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8252,7 +7900,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8267,12 +7915,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>96513</t>
+          <t>15278</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -8282,22 +7930,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>HELOISA REGINA SHIOZAKI</t>
+          <t>LUANA NUCCI</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 26/11/2023a26/11/2024</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>53123088461086</t>
+          <t>53103AF8RCWYP4</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8322,7 +7970,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8337,12 +7985,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>14619</t>
+          <t>98399</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -8352,17 +8000,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>CELSO DE LIMA NETTO</t>
+          <t>CAIO HENRIQUE RUFINO</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 26/11/2023a26/11/2024</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>53103AF8NFO354</t>
+          <t>53123090377771</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8392,7 +8040,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8055,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>97634</t>
+          <t>15407</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8422,17 +8070,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>FAST VIDROS DISTRIBUIDORA EIRELLI LTDA</t>
+          <t>FLAVIA DE REZENDE PATURY MONTEIRO</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>53123089402172</t>
+          <t>53103AF8S4KC17</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8462,7 +8110,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
+          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -8470,46 +8118,14 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>97941</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>AMADEU GARCIA</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>De: 26/10/2023a26/10/2024</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>53123089791497</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8532,7 +8148,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>405078 - LORENZETTI CORR.SEGUROS S/C LTDA</t>
+          <t>483310 - PINHO CORRETORA DE SEGUROS EIREL</t>
         </is>
       </c>
     </row>
@@ -8540,46 +8156,14 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>14398</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>MARCO ANTONIO RODRIGUES</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>De: 07/10/2023a07/10/2024</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>53103AF8M4AU92</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8592,7 +8176,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -8602,7 +8186,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>403410 - M.R.S.L CORRETORA DE SEGUROS LTD</t>
+          <t>402698 - RW1 CORRETORA DE SEGUROS EIRELI</t>
         </is>
       </c>
     </row>
@@ -8610,14 +8194,46 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ITALO JOSE SALGADINHO E OUTROS</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>De: 05/11/2023a05/11/2024</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>53103AF6GJIPT3</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J121" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8630,7 +8246,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -8640,7 +8256,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>404845 - M.V. CORRETORA DE SEGUROS LTDA.</t>
+          <t>502804 - RW1 CORRETORA DE SEGUROS EIRELI</t>
         </is>
       </c>
     </row>
@@ -8660,7 +8276,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>96557</t>
+          <t>98090</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8670,22 +8286,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>JOSE ANTONIO NUNES ALVARENGA</t>
+          <t>EDI FERREIRA DE SENE</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>De: 07/10/2023a07/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>53123088523634</t>
+          <t>53123089976314</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -8710,7 +8326,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>502735 - M.V. CORRETORA DE SEGUROS LTDA.</t>
+          <t>502804 - RW1 CORRETORA DE SEGUROS EIRELI</t>
         </is>
       </c>
     </row>
@@ -8725,12 +8341,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>97363</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -8740,17 +8356,17 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ITABOX INDUSTRIA E COMERCIO DE MOVEIS DE</t>
+          <t>DANUBIA APARECIDA JUVENCIO</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>53123089195959</t>
+          <t>53103AODB4DTT3</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8770,7 +8386,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -8780,7 +8396,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>502735 - M.V. CORRETORA DE SEGUROS LTDA.</t>
+          <t>404851 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -8788,14 +8404,46 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ANA MARIA APARECIDA DE ALMEIDA DUARTE</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>De: 18/11/2023a18/11/2024</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>53103AODB4T9D8</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8808,7 +8456,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8818,7 +8466,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>400061 - MARCIO ALVES</t>
+          <t>404851 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -8826,14 +8474,46 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>14881</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>JOSE ALEXANDRE DA SILVA LEAL</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>De: 01/11/2023a01/11/2024</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>53103AF8OZTOX0</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8846,7 +8526,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -8856,7 +8536,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>404020 - MARQUES E MERCHIAN CORR SEGS LTD</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -8864,14 +8544,46 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>14901</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>AUGUSTO CARLOS TECCHIO</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>De: 03/11/2023a03/11/2024</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>53103AF8P440H7</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8894,7 +8606,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>502732 - MARQUES E MERCHIAN CORR SEGS LTD</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -8902,14 +8614,46 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>14902</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>KELLEN CRISTIANE DO VALE LUCIO</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>De: 03/11/2023a03/11/2024</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>53103AF8P4BQ93</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -8922,7 +8666,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -8932,7 +8676,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>405102 - MUNDI CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -8952,7 +8696,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>14601</t>
+          <t>14904</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8962,17 +8706,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>LAURA CAROLINA DE CARVALHO</t>
+          <t>WALDIR JOSE PANHOZZI</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>53103AF8NBT753</t>
+          <t>53103AF8P4R5T2</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9002,7 +8746,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>498221 - NOVARAH PLUS CORRETORA DE SEGURO</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9017,12 +8761,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>96856</t>
+          <t>14905</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -9032,17 +8776,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>SATURNINA GASPARINI SANTOS</t>
+          <t>MARCOS CIRINEU VANUCHI</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>53123088802525</t>
+          <t>53103AF8P4YVL1</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9072,7 +8816,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>498221 - NOVARAH PLUS CORRETORA DE SEGURO</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9080,14 +8824,46 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>97958</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>DECIO AUGUSTO ANGELO</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>De: 03/11/2023a03/11/2024</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>53123089791667</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J130" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -9100,7 +8876,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>928 - SOROCABA MERCADO</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -9110,7 +8886,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>422836 - OCASIONAL CORRETORA DE SEGUROS L</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9125,12 +8901,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>14481</t>
+          <t>97959</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -9140,17 +8916,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>FELIPE MARQUES NAKAMURA</t>
+          <t>DECIO AUGUSTO ANGELO</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 03/11/2023a03/11/2024</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>53103AF8MM39T7</t>
+          <t>53123089791675</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9180,7 +8956,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>502733 - OCASIONAL CORRETORA DE SEGUROS L</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9195,12 +8971,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>96794</t>
+          <t>14993</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -9210,17 +8986,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>MARCIO JOSE ANASTACIO DA SILVA</t>
+          <t>GENI MARIA LOBATO GENTIL</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>53123088739904</t>
+          <t>53103AF8PNTW18</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9250,7 +9026,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>502733 - OCASIONAL CORRETORA DE SEGUROS L</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9046,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>14268</t>
+          <t>15027</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -9280,17 +9056,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>LAIS ROBERTA SORIGOTTO</t>
+          <t>JOSE CID LEAL</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>53103AF8LCFR57</t>
+          <t>53103AF8PV48H0</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9320,7 +9096,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9340,7 +9116,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>14330</t>
+          <t>15065</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -9350,17 +9126,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ANA CRISTINA LOPES DE SANTANA</t>
+          <t>HENRIQUE DEVIDE</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>De: 02/10/2023a02/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>53103AF8LPQ5D0</t>
+          <t>53103AF8Q39G17</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9390,7 +9166,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9410,7 +9186,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>14401</t>
+          <t>14992</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -9420,17 +9196,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>MARIA NEUMA FEITOSA DE BARROS</t>
+          <t>SHIRLEY FATTORI DOS SANTOS</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>De: 08/10/2023a08/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>53103AF8M4XZL0</t>
+          <t>53103AF8PNM699</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9460,7 +9236,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9256,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>14554</t>
+          <t>15126</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -9490,17 +9266,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>NADJA SANTOS OLIVEIRA</t>
+          <t>JOSIANI DE OLIVEIRA SANTOS CARVALHO</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>53103AF8N1QJL8</t>
+          <t>53103AF8QGC4H0</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9530,7 +9306,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9545,12 +9321,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>14555</t>
+          <t>98370</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -9560,17 +9336,17 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>ADRIANO FONTANEZZI ANTONIO</t>
+          <t>MATHEUS SOLER</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>53103AF8N1Y9D0</t>
+          <t>53123090377488</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9600,7 +9376,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9615,12 +9391,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>14557</t>
+          <t>98280</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -9630,17 +9406,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ALEXSANDER NEGRI DA CRUZ</t>
+          <t>FUNDACAO ESTUDOS E PESQUISAS AGRICOLAS F</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>53103AF8N2DOX5</t>
+          <t>53123090261757</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -9670,7 +9446,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9685,12 +9461,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>97169</t>
+          <t>15307</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9700,17 +9476,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>VANDEIR APARECIDO CANDIDO</t>
+          <t>MARIA HELENA RICCETTO RIBOLDY</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>53123089059389</t>
+          <t>53103AF8RJ4Q93</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9740,7 +9516,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9536,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>14580</t>
+          <t>15297</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -9770,17 +9546,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>LUCIANO DA SILVA</t>
+          <t>JOSE CID LEAL</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>53103AF8N7B5T8</t>
+          <t>53103AF8RGZKH8</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -9810,7 +9586,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9830,7 +9606,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>14600</t>
+          <t>15367</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -9840,17 +9616,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>SAMIRA COSTA</t>
+          <t>ANTONIO CLAUDINO MARTIN</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 25/11/2023a25/11/2024</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>53103AF8NBLHD9</t>
+          <t>53103AF8RVZOX0</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -9880,7 +9656,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9900,7 +9676,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>14714</t>
+          <t>15289</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -9910,17 +9686,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>MARIA CELIA LAZAZZERA GONCALVES DOS SANTOS</t>
+          <t>MISAEL RAUL</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 26/11/2023a26/11/2024</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>53103AF8O01412</t>
+          <t>53103AF8RF9U92</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -9950,7 +9726,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -9965,12 +9741,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>14757</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -9980,17 +9756,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ELIAS JOSE RODRIGUES</t>
+          <t>CLINICA INTEGRADA VIVA VIDA LTDA</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>53103AF8O98WH9</t>
+          <t>53103AF6KCOZL9</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10020,7 +9796,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -10040,7 +9816,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>14762</t>
+          <t>15381</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -10050,17 +9826,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>WILLIAN ROBERTO SOARES NUNES</t>
+          <t>DANUBIA APARECIDA JUVENCIO</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>53103AF8OABHD4</t>
+          <t>53103AF8RYZPT0</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10090,7 +9866,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -10098,46 +9874,14 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>14765</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>ANDREZA BARBOZA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>53103AF8OAYMP5</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -10150,7 +9894,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>930 - ITAPETININGA MERCADO</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -10160,7 +9904,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>402292 - SERGINHO COR. SEGS S/C LTDA.</t>
         </is>
       </c>
     </row>
@@ -10175,12 +9919,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>14808</t>
+          <t>98395</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -10190,17 +9934,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ELVIRA BASILI GALLO</t>
+          <t>ROBERTO MINORU HIRATA</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>53103AF8OK6F55</t>
+          <t>53123090377739</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10230,7 +9974,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>403995 - UNIMEDAVARE CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -10250,7 +9994,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>97651</t>
+          <t>98560</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -10260,17 +10004,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>DIMAS ALANES DA SILVA</t>
+          <t>IRIS NATALIA VAZ ARCA</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 24/11/2023a24/11/2024</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>53123089402342</t>
+          <t>53123090578947</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10300,7 +10044,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>402605 - OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>403995 - UNIMEDAVARE CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -10315,12 +10059,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>97474</t>
+          <t>5675</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -10330,17 +10074,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>ITALO DA SILVA DIAS</t>
+          <t>RAUL DIEGO PREZOTTO ARMANDO</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>53123089262788</t>
+          <t>53103AJSJXD4H6</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10360,7 +10104,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>928 - SOROCABA MERCADO</t>
+          <t>929 - PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -10370,7 +10114,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>483310 - PINHO CORRETORA DE SEGUROS EIREL</t>
+          <t>403995 - UNIMEDAVARE CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -10378,14 +10122,46 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>56007</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>SUZEL RODRIGUES FEIZ NARDINELLI</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>De: 13/11/2023a13/11/2024</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>53123090262176</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -10398,7 +10174,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>930 - ITAPETININGA MERCADO</t>
+          <t>929 - PIRACICABA MERCADO</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -10408,7 +10184,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>402698 - RW1 CORRETORA DE SEGUROS EIRELI</t>
+          <t>403995 - UNIMEDAVARE CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -10423,12 +10199,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>98621</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -10438,17 +10214,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>PANIFICADORA MERCEARIA E PIZZARIA IRMAOS CAMARGO L</t>
+          <t>YOUKO MURAMATSU SAITO</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>53103AF6JWEKH8</t>
+          <t>53123090691468</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -10477,1908 +10253,6 @@
         </is>
       </c>
       <c r="N150" t="inlineStr">
-        <is>
-          <t>502804 - RW1 CORRETORA DE SEGUROS EIRELI</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>1338</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>ITALO JOSE SALGADINHO E OUTROS</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>De: 30/10/2023a30/10/2024</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>53103AF6GD38H8</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>502804 - RW1 CORRETORA DE SEGUROS EIRELI</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>930 - ITAPETININGA MERCADO</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>404851 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>14339</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>ADELIA SILVA FORTES</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>53103AF8LRNLD9</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>14430</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>MARIA ANTONIETA FURLAN GODOY</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>De: 07/10/2023a07/10/2024</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>53103AF8MB5R58</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>14457</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>THAIS HELENA ABRAHAO THOMAZ QUELUZ</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>53103AF8MGY359</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>14470</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>JOSE ROBERTO GONCALVES</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>53103AF8MJQE98</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>96900</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>ROBERTO BAZZO</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>53123088864423</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>926</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>1909</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>CELSO EHLERS SANCHES</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>De: 13/10/2023a13/10/2024</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>53103AF6JRH3L8</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>926</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>1896</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>R S SCAPOL ADMINISTRACAO E CORRETAGEM DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>De: 14/10/2023a14/10/2024</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>53103AF6JOOSH6</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>14545</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>ODELIA CAETANO DE PAULA</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>De: 14/10/2023a14/10/2024</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>53103AF8MZT3L9</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>96816</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>FUNDACAO ESTUDOS E PESQUISAS AGRICOLAS F</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>De: 14/10/2023a14/10/2024</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>53123088802126</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>97157</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>FUNDACAO ESTUDOS E PESQUISAS AGRICOLAS F</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>De: 19/10/2023a19/10/2024</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>53123089059265</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>14637</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>KELLEN CRISTIANE DO VALE LUCIO</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>53103AF8NJIZ51</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>14638</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>LUIZ PRESTES PIRES</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>De: 21/10/2023a21/10/2024</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>53103AF8NJQOX9</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>97541</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>FABIO MORAES BARROS</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>De: 21/10/2023a21/10/2024</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>53123089334738</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>14672</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>ULISSES ANTONIO RIBOLDY</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>De: 26/10/2023a26/10/2024</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>53103AF8NR11D7</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>14733</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>ANDRE DO NASCIMETNO RODRIGUES</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>53103AF8O43PT7</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>14779</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>JOAO CARLOS ORSI</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>53103AF8ODYNL6</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>14781</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>GENI MARIA LOBATO GENTIL</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>53103AF8OEE350</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>14785</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>ANDREIA AP ODASSI COLPAS</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>53103AF8OF8Y91</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>14731</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>ZELIA APARECIDA BOTINI LAZARO</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>De: 28/10/2023a28/10/2024</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>53103AF8O3OA90</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>14824</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>SHEILA APARECIDA ROSSITO RICCARDI</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>53103AF8ONLVL6</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>14828</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>CAMILO ABILIO</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>53103AF8OOGQP6</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>97714</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>AUGUSTO CARLOS TECCHIO</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>53123089456159</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>97852</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>WALDEMAR APARECIDO FRAGA</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>53123089674105</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>502635 - SCAPOL SERV DE ADM E CORR DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>930 - ITAPETININGA MERCADO</t>
-        </is>
-      </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>402292 - SERGINHO COR. SEGS S/C LTDA.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>403995 - UNIMEDAVARE CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>929 - PIRACICABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>403995 - UNIMEDAVARE CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>97839</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>JOSE LUIS DOS SANTOS FILHO</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>53123089673974</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>928 - SOROCABA MERCADO</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>429.021.298-07 - Isabella Cristina Camilo Lima Castelli</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr">
         <is>
           <t>403156 - WPS CORRETORA DE SEGUROS LTDA</t>
         </is>
